--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1768B8-48D1-4EDD-B549-07EDC4A31192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D6B49-4978-4FE0-8286-A6DD154245B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1041,48 +1041,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,11 +1362,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="C174" sqref="C174"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7D6B49-4978-4FE0-8286-A6DD154245B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4055-79DA-48E7-9308-D77001877CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>Maegisalp</t>
+  </si>
+  <si>
+    <t>Falchern</t>
   </si>
 </sst>
 </file>
@@ -1360,19 +1363,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C174"/>
+  <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -1391,12 +1394,12 @@
         <v>596</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1412,7 +1415,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1439,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -1444,7 +1447,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>2690</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>126</v>
       </c>
@@ -1519,7 +1522,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1527,7 +1530,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1554,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>107</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1578,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>140</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1594,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +1602,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -1607,7 +1610,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -1615,7 +1618,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -1631,7 +1634,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>148</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1655,7 +1658,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1674,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>121</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1687,7 +1690,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1703,7 +1706,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1719,7 +1722,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -1727,7 +1730,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1735,7 +1738,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1743,7 +1746,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>33</v>
       </c>
@@ -1759,7 +1762,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>34</v>
       </c>
@@ -1767,7 +1770,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -1775,7 +1778,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -1783,7 +1786,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -1791,7 +1794,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>37</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>112</v>
       </c>
@@ -1831,7 +1834,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>137</v>
       </c>
@@ -1847,7 +1850,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1858,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -1863,7 +1866,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -1903,12 +1906,12 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>113</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>48</v>
       </c>
@@ -1932,7 +1935,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>149</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -1980,7 +1983,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -1988,7 +1991,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>56</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -2012,7 +2015,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -2020,7 +2023,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>138</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>60</v>
       </c>
@@ -2044,7 +2047,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -2052,7 +2055,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>62</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -2068,7 +2071,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>64</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2087,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>131</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>150</v>
       </c>
@@ -2116,7 +2119,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>67</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>68</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>69</v>
       </c>
@@ -2140,7 +2143,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>128</v>
       </c>
@@ -2148,7 +2151,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>70</v>
       </c>
@@ -2156,7 +2159,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>116</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>141</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>72</v>
       </c>
@@ -2188,7 +2191,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -2196,7 +2199,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>73</v>
       </c>
@@ -2204,7 +2207,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>147</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -2228,7 +2231,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>74</v>
       </c>
@@ -2236,7 +2239,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>144</v>
       </c>
@@ -2244,12 +2247,12 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>75</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>76</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>77</v>
       </c>
@@ -2273,7 +2276,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>78</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>79</v>
       </c>
@@ -2289,7 +2292,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>146</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>125</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>80</v>
       </c>
@@ -2313,7 +2316,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>81</v>
       </c>
@@ -2321,7 +2324,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>84</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>132</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>111</v>
       </c>
@@ -2361,7 +2364,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>114</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>85</v>
       </c>
@@ -2377,7 +2380,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>86</v>
       </c>
@@ -2385,7 +2388,7 @@
         <v>3502</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -2393,7 +2396,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>88</v>
       </c>
@@ -2401,7 +2404,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>89</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>90</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>91</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>93</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>94</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>95</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>108</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>134</v>
       </c>
@@ -2481,7 +2484,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>120</v>
       </c>
@@ -2489,7 +2492,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>136</v>
       </c>
@@ -2497,7 +2500,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>115</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>3690</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>96</v>
       </c>
@@ -2513,7 +2516,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>97</v>
       </c>
@@ -2521,7 +2524,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>98</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>99</v>
       </c>
@@ -2537,7 +2540,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>100</v>
       </c>
@@ -2545,7 +2548,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>101</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>130</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>102</v>
       </c>
@@ -2569,7 +2572,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>151</v>
       </c>
@@ -2577,7 +2580,7 @@
         <v>2658</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>152</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
@@ -2593,7 +2596,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2609,7 +2612,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2625,7 +2628,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2641,7 +2644,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>4634</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2673,7 +2676,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2681,7 +2684,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>4027</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2697,7 +2700,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2721,7 +2724,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2729,7 +2732,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>171</v>
       </c>
@@ -2737,7 +2740,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>173</v>
       </c>
@@ -2745,7 +2748,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>174</v>
       </c>
@@ -2753,12 +2756,20 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>175</v>
       </c>
       <c r="C174">
         <v>1707</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175">
+        <v>868</v>
       </c>
     </row>
   </sheetData>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2A4055-79DA-48E7-9308-D77001877CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB196B-B9A4-4D3C-987B-6B19B3675FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -551,6 +551,12 @@
   </si>
   <si>
     <t>Falchern</t>
+  </si>
+  <si>
+    <t>Gadmen Pt. 1196</t>
+  </si>
+  <si>
+    <t>Grausteckli</t>
   </si>
 </sst>
 </file>
@@ -1363,10 +1369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C175"/>
+  <dimension ref="A1:C177"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+      <selection activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2772,6 +2778,22 @@
         <v>868</v>
       </c>
     </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A176" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177">
+        <v>2795</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EB196B-B9A4-4D3C-987B-6B19B3675FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1939781-06DC-4A53-B2B5-946F25402B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>Grausteckli</t>
+  </si>
+  <si>
+    <t>Steisee</t>
   </si>
 </sst>
 </file>
@@ -1369,10 +1372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2794,6 +2797,14 @@
         <v>2795</v>
       </c>
     </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178">
+        <v>1932</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1939781-06DC-4A53-B2B5-946F25402B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF46D1-FA44-45CE-BC08-E3FAAAC60E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -560,6 +560,9 @@
   </si>
   <si>
     <t>Steisee</t>
+  </si>
+  <si>
+    <t>Chlyn Rychenbach</t>
   </si>
 </sst>
 </file>
@@ -1372,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2805,6 +2808,14 @@
         <v>1932</v>
       </c>
     </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179">
+        <v>1648</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFF46D1-FA44-45CE-BC08-E3FAAAC60E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEC5C4-2F28-459B-9BCF-660F687A0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -563,6 +563,12 @@
   </si>
   <si>
     <t>Chlyn Rychenbach</t>
+  </si>
+  <si>
+    <t>Gross Rychenbach</t>
+  </si>
+  <si>
+    <t>Engelhornhuette</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180"/>
+      <selection activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2816,6 +2822,22 @@
         <v>1648</v>
       </c>
     </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181">
+        <v>1901</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DEC5C4-2F28-459B-9BCF-660F687A0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3903A470-674E-4458-8149-4DE80AEBE56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>Engelhornhuette</t>
+  </si>
+  <si>
+    <t>Kaeserstatt Murmeliweg</t>
   </si>
 </sst>
 </file>
@@ -1381,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C181" sqref="C181"/>
+      <selection activeCell="C183" sqref="C183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2838,6 +2841,14 @@
         <v>1901</v>
       </c>
     </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182">
+        <v>1860</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3903A470-674E-4458-8149-4DE80AEBE56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC833A94-D857-412E-92E5-1EED8F7F0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Hasliberg</t>
   </si>
   <si>
-    <t>Hohfluh Staatstrasse</t>
-  </si>
-  <si>
     <t>Hohgant West</t>
   </si>
   <si>
@@ -572,6 +569,9 @@
   </si>
   <si>
     <t>Kaeserstatt Murmeliweg</t>
+  </si>
+  <si>
+    <t>Hohfluh</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1398,18 +1398,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C2">
         <v>596</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4">
         <v>2130</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9">
         <v>1531</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13">
         <v>2690</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14">
         <v>2640</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <v>983</v>
@@ -1585,7 +1585,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24">
         <v>1141</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26">
         <v>3089</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>574</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C32">
         <v>280</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33">
         <v>1850</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38">
         <v>2993</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44">
         <v>2412</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50">
         <v>2164</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C52">
         <v>2171</v>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57">
         <v>2005</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>1054</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61">
         <v>3420</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68">
         <v>1256</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B69">
         <v>2440</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="B70">
         <v>1052</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B71">
         <v>2164</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C72">
         <v>1548</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C73">
         <v>1948</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C74">
         <v>3035</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>2594</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B76">
         <v>280</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C77">
         <v>1827</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78">
         <v>565</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79">
         <v>1597</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80">
         <v>673</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81">
         <v>797</v>
@@ -2046,7 +2046,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C82">
         <v>1707</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C83">
         <v>2923</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84">
         <v>2200</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C85">
         <v>600</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86">
         <v>691</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87">
         <v>925</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C88">
         <v>1020</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89">
         <v>2362</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C90">
         <v>691</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C91">
         <v>2362</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C92">
         <v>1677</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93">
         <v>1950</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C94">
         <v>1208</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C95">
         <v>2989</v>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96">
         <v>1849</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97">
         <v>2949</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C98">
         <v>1628</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C99">
         <v>1863</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C100">
         <v>1358</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C101">
         <v>1341</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C102">
         <v>2245</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C103">
         <v>3259</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C104">
         <v>1769</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105">
         <v>2323</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>1052</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>1065</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C108">
         <v>1050</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C109">
         <v>1409</v>
@@ -2270,12 +2270,12 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C111">
         <v>2969</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B112">
         <v>1937</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B113">
         <v>1037</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C114">
         <v>2927</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B115">
         <v>1455</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C116">
         <v>1224</v>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C117">
         <v>1359</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C118">
         <v>2069</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B119">
         <v>800</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B120">
         <v>2051</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121">
         <v>1105</v>
@@ -2363,7 +2363,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C122">
         <v>3020</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C123">
         <v>1370</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C124">
         <v>1677</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B125">
         <v>1439</v>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C126">
         <v>1863</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C127">
         <v>3502</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C128">
         <v>2855</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B129">
         <v>1750</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C130">
         <v>2326</v>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131">
         <v>1328</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C132">
         <v>2798</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133">
         <v>2911</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C134">
         <v>1851</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B135">
         <v>1346</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C136">
         <v>1649</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C137">
         <v>1822</v>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C138">
         <v>2303</v>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C139">
         <v>2705</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C140">
         <v>1217</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <v>1945</v>
@@ -2523,7 +2523,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C142">
         <v>3690</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C143">
         <v>2891</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144">
         <v>3244</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B145">
         <v>1400</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146">
         <v>2005</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C147">
         <v>1875</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C148">
         <v>1390</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C149">
         <v>1079</v>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C150">
         <v>976</v>
@@ -2595,7 +2595,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151">
         <v>2658</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152">
         <v>2090</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153">
         <v>2517</v>
@@ -2619,7 +2619,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154">
         <v>618</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155">
         <v>1013</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156">
         <v>976</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157">
         <v>1540</v>
@@ -2651,7 +2651,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158">
         <v>1223</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159">
         <v>2883</v>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160">
         <v>4634</v>
@@ -2675,7 +2675,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161">
         <v>1706</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162">
         <v>3586</v>
@@ -2691,7 +2691,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163">
         <v>2269</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164">
         <v>3030</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165">
         <v>4027</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166">
         <v>1562</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167">
         <v>1409</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168">
         <v>2835</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C169">
         <v>1171</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C170">
         <v>1617</v>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>866</v>
@@ -2763,7 +2763,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C172">
         <v>1617</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C173">
         <v>1082</v>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C174">
         <v>1707</v>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C175">
         <v>868</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C176">
         <v>1196</v>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C177">
         <v>2795</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C178">
         <v>1932</v>
@@ -2819,7 +2819,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C179">
         <v>1648</v>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C180">
         <v>1574</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C181">
         <v>1901</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C182">
         <v>1860</v>

--- a/data/hm.xlsx
+++ b/data/hm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC833A94-D857-412E-92E5-1EED8F7F0C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063F9AE6-EAF6-4743-9B10-11C0D06A0D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hm" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Abzweigung Wanderweg</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>Hohfluh</t>
+  </si>
+  <si>
+    <t>Chrüterenboden Pt. 1912</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2849,6 +2852,14 @@
         <v>1860</v>
       </c>
     </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183">
+        <v>1912</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C150">
     <sortCondition ref="A2:A150"/>
